--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_ELE.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_ELE.XLSX
@@ -159,9 +159,6 @@
     <t>GERSON DE ANDRADE</t>
   </si>
   <si>
-    <t>RAMON QUEIROZ DE SOUZA</t>
-  </si>
-  <si>
     <t>RAFAEL GONCALVES DOS SANTOS</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1330</t>
   </si>
   <si>
@@ -249,9 +249,6 @@
     <t>2777</t>
   </si>
   <si>
-    <t>3075</t>
-  </si>
-  <si>
     <t>3084</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>4207</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_ELE.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_ELE.XLSX
@@ -334,10 +334,10 @@
 MANUTENÇÃO ELÉTRICA</t>
   </si>
   <si>
-    <t>VALDECIR P DA SILVA</t>
-  </si>
-  <si>
-    <t>Matr.: 1330</t>
+    <t>GERSON DE ANDRADE</t>
+  </si>
+  <si>
+    <t>Matr.: 2777</t>
   </si>
   <si>
     <t>IPM_ELE</t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_ELE.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_ELE.XLSX
@@ -150,9 +150,6 @@
     <t>IQ-DOC</t>
   </si>
   <si>
-    <t>VALDECIR P DA SILVA</t>
-  </si>
-  <si>
     <t>JORGE ALMEIDA DE MOURA</t>
   </si>
   <si>
@@ -177,7 +174,7 @@
     <t>CARLOS ROBERTO BERNADINO DIAS</t>
   </si>
   <si>
-    <t>JOSE HENRIQUE DANIEL</t>
+    <t>JOAO HENRIQUE DANIEL</t>
   </si>
   <si>
     <t>JAIR DE SOUZA JUNIOR</t>
@@ -240,7 +237,7 @@
     <t> </t>
   </si>
   <si>
-    <t>1330</t>
+    <t> </t>
   </si>
   <si>
     <t>1728</t>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>4207</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
